--- a/03補足資料/ダイレクトページ疑問点補足資料_20200511.xlsx
+++ b/03補足資料/ダイレクトページ疑問点補足資料_20200511.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shota Tsuji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\03補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B901D7-979B-4D93-B2BA-23CFA2BEF1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B138BFF3-EEA4-4190-9233-3A304B2851D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{42B77078-A4C2-4D3C-A89B-B60FF4C50DC0}"/>
+    <workbookView xWindow="-23148" yWindow="1284" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{42B77078-A4C2-4D3C-A89B-B60FF4C50DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="20200511" sheetId="1" r:id="rId1"/>
+    <sheet name="20200516" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>▼</t>
     <phoneticPr fontId="1"/>
@@ -85,6 +86,41 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイレクトメッセージサブ画面</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズを縮小したとき、下記フォームのデザインが崩れてしまうため下記フォームの「textarea」タグの横幅を調整したい</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヨコハバ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ブブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -164,9 +200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>51246</xdr:colOff>
+      <xdr:colOff>49341</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>18438</xdr:rowOff>
+      <xdr:rowOff>22248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -574,6 +610,306 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275333</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>212388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF92C7BC-27D7-4B36-B248-F4D1D672666E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="944880"/>
+          <a:ext cx="7133333" cy="7771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3BB9A5-4E52-474A-B0E4-56EF66F1F360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="369570" y="7913370"/>
+          <a:ext cx="6412230" cy="605790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="101600">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>255857</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>151495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4842C0E2-B322-43D8-8796-DAB38E0C2BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="8976360"/>
+          <a:ext cx="10542857" cy="7238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA463D0-5F26-4371-9636-3959B6E2D7ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="13677900"/>
+          <a:ext cx="4191000" cy="1779270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="101600">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09398F74-41F1-45D0-9CAD-F79219659225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1207770" y="4636770"/>
+          <a:ext cx="4968240" cy="1950720"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5143"/>
+            <a:gd name="adj2" fmla="val 116337"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>width</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」はなぜうまく効いてくれないのでしょうか。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -881,11 +1217,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC86D41-EDC2-42F5-9934-94CD5F6171C9}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -893,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -910,4 +1246,38 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFE8576-E458-421E-9E8B-B425AB71D540}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/03補足資料/ダイレクトページ疑問点補足資料_20200511.xlsx
+++ b/03補足資料/ダイレクトページ疑問点補足資料_20200511.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AniMatchProject-20200126\03補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B138BFF3-EEA4-4190-9233-3A304B2851D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A439065-D030-4836-AC58-D161311A231A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1284" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{42B77078-A4C2-4D3C-A89B-B60FF4C50DC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{42B77078-A4C2-4D3C-A89B-B60FF4C50DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="20200511" sheetId="1" r:id="rId1"/>
     <sheet name="20200516" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,10 +118,7 @@
       <t>ヨコハバ</t>
     </rPh>
     <rPh sb="56" eb="58">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ブブン</t>
+      <t>チョウセイブブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
